--- a/Docs/Tablas Datos Lab 4-5.xlsx
+++ b/Docs/Tablas Datos Lab 4-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\ISIS1225DEVS\ISIS1225-SampleSorts\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andres Intersemestral 202119\Estructuras de datos y algoritmos\Visual studio\LabSorts-S03-G02\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE77ED-6879-423E-A3BB-D429D1EC54DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2063B6C-5665-4786-A4F1-F6DD2788720E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10933" yWindow="3880" windowWidth="19200" windowHeight="5300" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <r>
       <t>T</t>
@@ -87,12 +83,24 @@
   <si>
     <t>Merge Sort [ms]</t>
   </si>
+  <si>
+    <t>253.07</t>
+  </si>
+  <si>
+    <t>75234.37</t>
+  </si>
+  <si>
+    <t>751250.00</t>
+  </si>
+  <si>
+    <t>74927.66</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,7 +578,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -637,7 +645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -685,6 +693,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -699,6 +764,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10172100033043464"/>
+                  <c:y val="-4.4925332609285905E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -724,10 +795,24 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -749,21 +834,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,34 +845,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>901.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>3661.453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>14749.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>62947.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>253197.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,6 +922,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5258988225243597E-2"/>
+                  <c:y val="7.0060474415619675E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -892,7 +953,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -918,21 +979,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -943,34 +989,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>906.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3695.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>14539.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>62242.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,6 +1065,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9258187660012298E-2"/>
+                  <c:y val="-0.41468417544985559"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1059,7 +1096,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1078,6 +1115,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0820176392996937E-2"/>
+                  <c:y val="-0.21613852343692147"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1103,7 +1146,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1129,21 +1172,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1154,34 +1182,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>906.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>3598.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>14354.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>62979.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>245098.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,6 +1266,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8483761689461279E-2"/>
+                  <c:y val="-0.12405088078723701"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1278,7 +1297,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1304,21 +1323,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1342,21 +1346,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,6 +1417,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1636269366022181E-2"/>
+                  <c:y val="5.7974312772032022E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1453,7 +1448,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1479,21 +1474,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1517,21 +1497,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1596,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1669,7 +1634,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1753,7 +1718,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1791,7 +1756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1833,7 +1798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1870,7 +1835,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1879,7 +1844,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1946,7 +1911,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2043,7 +2008,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2094,34 +2059,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,7 +2148,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2261,34 +2199,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,7 +2288,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2428,34 +2339,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2552,7 +2436,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2727,7 +2611,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2905,7 +2789,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2943,7 +2827,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -3027,7 +2911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3065,7 +2949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -3107,7 +2991,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3144,7 +3028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3153,7 +3037,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3220,7 +3104,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3307,7 +3191,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3333,21 +3217,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3358,34 +3227,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>901.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>3661.453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>14749.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>62947.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>253197.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3474,7 +3328,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3525,34 +3379,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,7 +3479,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3690,7 +3517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3769,7 +3596,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3807,7 +3634,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3849,7 +3676,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3886,7 +3713,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3895,7 +3722,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3957,7 +3784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4044,7 +3871,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4070,21 +3897,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4095,34 +3907,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>906.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3695.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>14539.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>62242.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,7 +4008,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4262,34 +4059,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,7 +4159,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,7 +4197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4506,7 +4276,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4544,7 +4314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4586,7 +4356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4623,7 +4393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4632,7 +4402,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4694,7 +4464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4781,7 +4551,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4807,21 +4577,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4832,34 +4587,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>906.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>3598.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>14354.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>62979.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>245098.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,7 +4688,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4999,34 +4739,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,7 +4839,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5164,7 +4877,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5243,7 +4956,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5281,7 +4994,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5323,7 +5036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5360,7 +5073,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5369,7 +5082,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5439,7 +5152,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5526,7 +5239,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5552,21 +5265,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5590,21 +5288,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5693,7 +5376,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5871,7 +5554,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5909,7 +5592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5988,7 +5671,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6026,7 +5709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6068,7 +5751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6105,7 +5788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6114,7 +5797,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6184,7 +5867,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6272,7 +5955,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6298,21 +5981,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6336,21 +6004,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6440,7 +6093,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6618,7 +6271,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6656,7 +6309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -6735,7 +6388,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6773,7 +6426,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6815,7 +6468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6852,7 +6505,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -10759,7 +10412,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10770,7 +10423,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10781,7 +10434,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10792,7 +10445,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10803,7 +10456,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10825,7 +10478,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10858,7 +10511,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10891,7 +10544,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10924,7 +10577,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10957,7 +10610,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10990,7 +10643,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11083,7 +10736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11381,20 +11034,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.1171875" customWidth="1"/>
+    <col min="5" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -11414,18 +11067,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="4">
-        <v>15.7</v>
+        <v>901.04</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>906.24</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>906.25</v>
       </c>
       <c r="E2" s="5">
         <v>20</v>
@@ -11434,19 +11087,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>3661.453</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>3695.31</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+        <v>3598.96</v>
       </c>
       <c r="E3" s="5">
         <v>40</v>
@@ -11455,20 +11107,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>45</v>
+        <v>14749.99</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+        <v>14539.06</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>14354.17</v>
       </c>
       <c r="E4" s="5">
         <v>60</v>
@@ -11477,20 +11127,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>60</v>
+        <v>62947.91</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>62242.18</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>62979.16</v>
       </c>
       <c r="E5" s="5">
         <v>80</v>
@@ -11499,20 +11147,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>75</v>
+        <v>253197.91</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>245098.96</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
@@ -11521,117 +11167,47 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
-        <v>32000</v>
-      </c>
-      <c r="B7" s="4">
-        <v>90</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E7" s="5">
-        <v>120</v>
-      </c>
-      <c r="F7" s="5">
-        <v>210</v>
-      </c>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
-        <v>64000</v>
-      </c>
-      <c r="B8" s="4">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E8" s="5">
-        <v>140</v>
-      </c>
-      <c r="F8" s="5">
-        <v>240</v>
-      </c>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
-        <v>128000</v>
-      </c>
-      <c r="B9" s="4">
-        <v>120</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E9" s="5">
-        <v>160</v>
-      </c>
-      <c r="F9" s="5">
-        <v>270</v>
-      </c>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
-        <v>256000</v>
-      </c>
-      <c r="B10" s="4">
-        <v>135</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E10" s="5">
-        <v>180</v>
-      </c>
-      <c r="F10" s="5">
-        <v>300</v>
-      </c>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
-        <v>512000</v>
-      </c>
-      <c r="B11" s="4">
-        <v>150</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>330</v>
-      </c>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -11651,18 +11227,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
-      <c r="B15" s="4">
-        <v>50</v>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="D15" s="4">
-        <v>35</v>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="5">
         <v>30</v>
@@ -11671,20 +11247,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
-      <c r="B16" s="4">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="5">
         <v>60</v>
       </c>
@@ -11692,21 +11261,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="5">
         <v>90</v>
       </c>
@@ -11714,21 +11275,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="5">
         <v>120</v>
       </c>
@@ -11736,21 +11289,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="5">
         <v>150</v>
       </c>
@@ -11758,21 +11303,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="5">
         <v>180</v>
       </c>
@@ -11780,21 +11317,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="5">
         <v>210</v>
       </c>
@@ -11802,21 +11331,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="5">
         <v>240</v>
       </c>
@@ -11824,21 +11345,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="5">
         <v>270</v>
       </c>
@@ -11846,21 +11359,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="5">
         <v>300</v>
       </c>
@@ -11887,6 +11392,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c10596efcc8303131ba000bf7988b65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88645b4f568d2e9f6d2a1da3b5a5f323" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12097,12 +11608,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
@@ -12112,6 +11617,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12128,21 +11650,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>